--- a/results/compare-password-async-10salt.xlsx
+++ b/results/compare-password-async-10salt.xlsx
@@ -36,7 +36,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="nan-compare-password-async-10salt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/nicoladelgobbo/Documents/GitHub/bcrypt-perf/results/nan-compare-password-async-10salt.csv" decimal="," thousands="." comma="1">
+    <textPr fileType="mac" sourceFile="/Users/nicoladelgobbo/Documents/GitHub/bcrypt-perf/results/nan-compare-password-async-10salt.csv" decimal="," thousands="." comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -47,7 +47,7 @@
     </textPr>
   </connection>
   <connection id="2" name="nan-compare-password-async-10salt1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/nicoladelgobbo/Documents/GitHub/bcrypt-perf/results/nan-compare-password-async-10salt.csv" decimal="," thousands="." comma="1">
+    <textPr fileType="mac" sourceFile="/Users/nicoladelgobbo/Documents/GitHub/bcrypt-perf/results/nan-compare-password-async-10salt.csv" decimal="," thousands="." comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -58,7 +58,7 @@
     </textPr>
   </connection>
   <connection id="3" name="napi-compare-password-async-10salt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/nicoladelgobbo/Documents/GitHub/bcrypt-perf/results/napi-compare-password-async-10salt.csv" decimal="," thousands="." comma="1">
+    <textPr fileType="mac" sourceFile="/Users/nicoladelgobbo/Documents/GitHub/bcrypt-perf/results/napi-compare-password-async-10salt.csv" decimal="," thousands="." comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -147,8 +147,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -164,15 +172,23 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="17">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale visitato" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale visitato" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale visitato" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale visitato" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -462,9 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A976" workbookViewId="0">
-      <selection activeCell="E1003" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView topLeftCell="A645" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -34552,8 +34566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A993" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F1002"/>
+    <sheetView tabSelected="1" topLeftCell="A976" workbookViewId="0">
+      <selection activeCell="G1010" sqref="G1010"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
